--- a/biology/Botanique/Parc_d'État_Roberto-Clemente/Parc_d'État_Roberto-Clemente.xlsx
+++ b/biology/Botanique/Parc_d'État_Roberto-Clemente/Parc_d'État_Roberto-Clemente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89tat_Roberto-Clemente</t>
+          <t>Parc_d'État_Roberto-Clemente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc d'État Roberto-Clemente (Roberto Clemente State Park) est un parc d'État dans le South Bronx, à New York aux États-Unis. Le parc est au nord de la ville, et adjacent à la Harlem River, à la Major Deegan Expressway et à la gare Morris Heights sur la ligne Hudson Line du train Metro-North Railroad. Roberto Clemente était un joueur de baseball, tué dans un accident d'avion alors qu'il essayait de rejoindre les secours après le tremblement de terre de 1972 au Nicaragua (en).
